--- a/sheet_engine/test_sheets/subjects.xlsx
+++ b/sheet_engine/test_sheets/subjects.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CodeLab\Projects\curie\sheet_engine\test_sheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7AB10384-33E0-490A-A5B1-B364B3FD8F71}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9ED5AA53-CFC4-4F4B-924D-2AAB985E15ED}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{93122E05-8E27-475F-8386-395538187616}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="38">
   <si>
     <t>NAME</t>
   </si>
@@ -53,9 +53,6 @@
     <t>Mathematics</t>
   </si>
   <si>
-    <t>n</t>
-  </si>
-  <si>
     <t>ENG</t>
   </si>
   <si>
@@ -81,6 +78,75 @@
   </si>
   <si>
     <t>SUBJECT DATA SHEET</t>
+  </si>
+  <si>
+    <t>Integrated Science</t>
+  </si>
+  <si>
+    <t>no</t>
+  </si>
+  <si>
+    <t>Social Studies</t>
+  </si>
+  <si>
+    <t>SCI</t>
+  </si>
+  <si>
+    <t>SOC</t>
+  </si>
+  <si>
+    <t>Elective Mathematics</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Biology </t>
+  </si>
+  <si>
+    <t>Physics</t>
+  </si>
+  <si>
+    <t>Chemistry</t>
+  </si>
+  <si>
+    <t>Government</t>
+  </si>
+  <si>
+    <t>Economic</t>
+  </si>
+  <si>
+    <t>EMATH</t>
+  </si>
+  <si>
+    <t>BIO</t>
+  </si>
+  <si>
+    <t>PHY</t>
+  </si>
+  <si>
+    <t>CHE</t>
+  </si>
+  <si>
+    <t>GOV</t>
+  </si>
+  <si>
+    <t>ECO</t>
+  </si>
+  <si>
+    <t>Financial Account</t>
+  </si>
+  <si>
+    <t>Cost Accounting</t>
+  </si>
+  <si>
+    <t>Business Management</t>
+  </si>
+  <si>
+    <t>FA</t>
+  </si>
+  <si>
+    <t>CA</t>
+  </si>
+  <si>
+    <t>BM</t>
   </si>
 </sst>
 </file>
@@ -137,7 +203,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -145,6 +211,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -518,204 +585,205 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A9C6235A-F8D4-4F04-B11C-26425F775EAD}">
-  <dimension ref="A1:O15"/>
+  <dimension ref="A1:O26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10:O10"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A1" s="3"/>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
-      <c r="H1" s="4"/>
-      <c r="I1" s="4"/>
-      <c r="J1" s="4"/>
-      <c r="K1" s="4"/>
-      <c r="L1" s="4"/>
-      <c r="M1" s="4"/>
-      <c r="N1" s="4"/>
-      <c r="O1" s="4"/>
+      <c r="A1" s="4"/>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
+      <c r="H1" s="5"/>
+      <c r="I1" s="5"/>
+      <c r="J1" s="5"/>
+      <c r="K1" s="5"/>
+      <c r="L1" s="5"/>
+      <c r="M1" s="5"/>
+      <c r="N1" s="5"/>
+      <c r="O1" s="5"/>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A2" s="4"/>
-      <c r="B2" s="4"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
-      <c r="H2" s="4"/>
-      <c r="I2" s="4"/>
-      <c r="J2" s="4"/>
-      <c r="K2" s="4"/>
-      <c r="L2" s="4"/>
-      <c r="M2" s="4"/>
-      <c r="N2" s="4"/>
-      <c r="O2" s="4"/>
+      <c r="A2" s="5"/>
+      <c r="B2" s="5"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="5"/>
+      <c r="I2" s="5"/>
+      <c r="J2" s="5"/>
+      <c r="K2" s="5"/>
+      <c r="L2" s="5"/>
+      <c r="M2" s="5"/>
+      <c r="N2" s="5"/>
+      <c r="O2" s="5"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A3" s="4"/>
-      <c r="B3" s="4"/>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
-      <c r="G3" s="4"/>
-      <c r="H3" s="4"/>
-      <c r="I3" s="4"/>
-      <c r="J3" s="4"/>
-      <c r="K3" s="4"/>
-      <c r="L3" s="4"/>
-      <c r="M3" s="4"/>
-      <c r="N3" s="4"/>
-      <c r="O3" s="4"/>
+      <c r="A3" s="5"/>
+      <c r="B3" s="5"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="5"/>
+      <c r="I3" s="5"/>
+      <c r="J3" s="5"/>
+      <c r="K3" s="5"/>
+      <c r="L3" s="5"/>
+      <c r="M3" s="5"/>
+      <c r="N3" s="5"/>
+      <c r="O3" s="5"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A4" s="4"/>
-      <c r="B4" s="4"/>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4"/>
-      <c r="G4" s="4"/>
-      <c r="H4" s="4"/>
-      <c r="I4" s="4"/>
-      <c r="J4" s="4"/>
-      <c r="K4" s="4"/>
-      <c r="L4" s="4"/>
-      <c r="M4" s="4"/>
-      <c r="N4" s="4"/>
-      <c r="O4" s="4"/>
+      <c r="A4" s="5"/>
+      <c r="B4" s="5"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="5"/>
+      <c r="H4" s="5"/>
+      <c r="I4" s="5"/>
+      <c r="J4" s="5"/>
+      <c r="K4" s="5"/>
+      <c r="L4" s="5"/>
+      <c r="M4" s="5"/>
+      <c r="N4" s="5"/>
+      <c r="O4" s="5"/>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A5" s="4"/>
-      <c r="B5" s="4"/>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4"/>
-      <c r="G5" s="4"/>
-      <c r="H5" s="4"/>
-      <c r="I5" s="4"/>
-      <c r="J5" s="4"/>
-      <c r="K5" s="4"/>
-      <c r="L5" s="4"/>
-      <c r="M5" s="4"/>
-      <c r="N5" s="4"/>
-      <c r="O5" s="4"/>
+      <c r="A5" s="5"/>
+      <c r="B5" s="5"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
+      <c r="H5" s="5"/>
+      <c r="I5" s="5"/>
+      <c r="J5" s="5"/>
+      <c r="K5" s="5"/>
+      <c r="L5" s="5"/>
+      <c r="M5" s="5"/>
+      <c r="N5" s="5"/>
+      <c r="O5" s="5"/>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A6" s="4"/>
-      <c r="B6" s="4"/>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4"/>
-      <c r="G6" s="4"/>
-      <c r="H6" s="4"/>
-      <c r="I6" s="4"/>
-      <c r="J6" s="4"/>
-      <c r="K6" s="4"/>
-      <c r="L6" s="4"/>
-      <c r="M6" s="4"/>
-      <c r="N6" s="4"/>
-      <c r="O6" s="4"/>
+      <c r="A6" s="5"/>
+      <c r="B6" s="5"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="5"/>
+      <c r="I6" s="5"/>
+      <c r="J6" s="5"/>
+      <c r="K6" s="5"/>
+      <c r="L6" s="5"/>
+      <c r="M6" s="5"/>
+      <c r="N6" s="5"/>
+      <c r="O6" s="5"/>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A7" s="4"/>
-      <c r="B7" s="4"/>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
-      <c r="G7" s="4"/>
-      <c r="H7" s="4"/>
-      <c r="I7" s="4"/>
-      <c r="J7" s="4"/>
-      <c r="K7" s="4"/>
-      <c r="L7" s="4"/>
-      <c r="M7" s="4"/>
-      <c r="N7" s="4"/>
-      <c r="O7" s="4"/>
+      <c r="A7" s="5"/>
+      <c r="B7" s="5"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="5"/>
+      <c r="I7" s="5"/>
+      <c r="J7" s="5"/>
+      <c r="K7" s="5"/>
+      <c r="L7" s="5"/>
+      <c r="M7" s="5"/>
+      <c r="N7" s="5"/>
+      <c r="O7" s="5"/>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A8" s="4"/>
-      <c r="B8" s="4"/>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
-      <c r="G8" s="4"/>
-      <c r="H8" s="4"/>
-      <c r="I8" s="4"/>
-      <c r="J8" s="4"/>
-      <c r="K8" s="4"/>
-      <c r="L8" s="4"/>
-      <c r="M8" s="4"/>
-      <c r="N8" s="4"/>
-      <c r="O8" s="4"/>
+      <c r="A8" s="5"/>
+      <c r="B8" s="5"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="5"/>
+      <c r="H8" s="5"/>
+      <c r="I8" s="5"/>
+      <c r="J8" s="5"/>
+      <c r="K8" s="5"/>
+      <c r="L8" s="5"/>
+      <c r="M8" s="5"/>
+      <c r="N8" s="5"/>
+      <c r="O8" s="5"/>
     </row>
     <row r="9" spans="1:15" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A9" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="B9" s="4"/>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
-      <c r="G9" s="4"/>
-      <c r="H9" s="4"/>
-      <c r="I9" s="4"/>
-      <c r="J9" s="4"/>
-      <c r="K9" s="4"/>
-      <c r="L9" s="4"/>
-      <c r="M9" s="4"/>
-      <c r="N9" s="4"/>
-      <c r="O9" s="4"/>
+      <c r="A9" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" s="5"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="5"/>
+      <c r="I9" s="5"/>
+      <c r="J9" s="5"/>
+      <c r="K9" s="5"/>
+      <c r="L9" s="5"/>
+      <c r="M9" s="5"/>
+      <c r="N9" s="5"/>
+      <c r="O9" s="5"/>
     </row>
     <row r="10" spans="1:15" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A10" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="B10" s="4"/>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4"/>
-      <c r="F10" s="4"/>
-      <c r="G10" s="4"/>
-      <c r="H10" s="4"/>
-      <c r="I10" s="4"/>
-      <c r="J10" s="4"/>
-      <c r="K10" s="4"/>
-      <c r="L10" s="4"/>
-      <c r="M10" s="4"/>
-      <c r="N10" s="4"/>
-      <c r="O10" s="4"/>
+      <c r="A10" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" s="5"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="5"/>
+      <c r="H10" s="5"/>
+      <c r="I10" s="5"/>
+      <c r="J10" s="5"/>
+      <c r="K10" s="5"/>
+      <c r="L10" s="5"/>
+      <c r="M10" s="5"/>
+      <c r="N10" s="5"/>
+      <c r="O10" s="5"/>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11" s="2" t="s">
         <v>12</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>13</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>0</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
@@ -723,17 +791,17 @@
         <v>1</v>
       </c>
       <c r="B12" t="s">
-        <v>1</v>
+        <v>19</v>
       </c>
       <c r="C12" t="s">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="D12" t="s">
-        <v>3</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A13">
+      <c r="A13" s="3">
         <v>2</v>
       </c>
       <c r="B13" t="s">
@@ -743,34 +811,188 @@
         <v>5</v>
       </c>
       <c r="D13" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A14" s="3">
+        <v>3</v>
+      </c>
+      <c r="B14" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A14">
-        <v>3</v>
-      </c>
-      <c r="B14" t="s">
+      <c r="C14" t="s">
         <v>7</v>
       </c>
-      <c r="C14" t="s">
+      <c r="D14" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A15" s="3">
+        <v>4</v>
+      </c>
+      <c r="B15" t="s">
+        <v>18</v>
+      </c>
+      <c r="C15" t="s">
+        <v>15</v>
+      </c>
+      <c r="D15" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A16" s="3">
+        <v>5</v>
+      </c>
+      <c r="B16" t="s">
+        <v>26</v>
+      </c>
+      <c r="C16" t="s">
+        <v>20</v>
+      </c>
+      <c r="D16" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="3">
+        <v>6</v>
+      </c>
+      <c r="B17" t="s">
         <v>8</v>
       </c>
-      <c r="D14" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A15">
-        <v>4</v>
-      </c>
-      <c r="B15" t="s">
+      <c r="C17" t="s">
         <v>9</v>
       </c>
-      <c r="C15" t="s">
+      <c r="D17" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="3">
+        <v>7</v>
+      </c>
+      <c r="B18" t="s">
+        <v>1</v>
+      </c>
+      <c r="C18" t="s">
+        <v>2</v>
+      </c>
+      <c r="D18" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="3">
+        <v>8</v>
+      </c>
+      <c r="B19" t="s">
+        <v>27</v>
+      </c>
+      <c r="C19" t="s">
+        <v>21</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="3">
+        <v>9</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C20" t="s">
+        <v>22</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="3">
         <v>10</v>
       </c>
-      <c r="D15" t="s">
+      <c r="B21" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C21" t="s">
+        <v>23</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="3">
+        <v>11</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C22" t="s">
+        <v>24</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="3">
+        <v>12</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C23" t="s">
+        <v>25</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="3">
+        <v>13</v>
+      </c>
+      <c r="B24" t="s">
+        <v>35</v>
+      </c>
+      <c r="C24" t="s">
+        <v>32</v>
+      </c>
+      <c r="D24" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="3">
+        <v>14</v>
+      </c>
+      <c r="B25" t="s">
+        <v>36</v>
+      </c>
+      <c r="C25" t="s">
+        <v>33</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" s="3">
+        <v>15</v>
+      </c>
+      <c r="B26" t="s">
+        <v>37</v>
+      </c>
+      <c r="C26" t="s">
+        <v>34</v>
+      </c>
+      <c r="D26" s="3" t="s">
         <v>3</v>
       </c>
     </row>
